--- a/Test Contextsize/dataframe-200-400-800.xlsx
+++ b/Test Contextsize/dataframe-200-400-800.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/aknipschild/github/Local_LLMs/Test Contextsize/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88786EF4-9FEF-C84D-8C90-40495EBCCB33}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{027E1A4B-E344-E540-89D6-90C304FE761B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="21580" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="877" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1093" uniqueCount="79">
   <si>
     <t>Model</t>
   </si>
@@ -244,6 +244,21 @@
   </si>
   <si>
     <t>The best thing to do in San Francisco is eat a sandwich and sit in Dolores Park on a sunny day</t>
+  </si>
+  <si>
+    <t>ollama/llama3:70b-instruct</t>
+  </si>
+  <si>
+    <t>llama 3 70B instruct (ollama Default)</t>
+  </si>
+  <si>
+    <t>There is no matching passage in the provided text that answers what the best thing to do in San Francisco is. The closest mention of San Francisco is an advertisement for Y Combinator, but it does not provide information about things to do in the city</t>
+  </si>
+  <si>
+    <t>ollama/llama3-70b-instruct-32k</t>
+  </si>
+  <si>
+    <t>llama 3 70B instruct, num_ctx 32768 (Modelfile)</t>
   </si>
 </sst>
 </file>
@@ -607,13 +622,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M217"/>
+  <dimension ref="A1:M271"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A219" workbookViewId="0">
+      <selection activeCell="I234" sqref="I234"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="33.83203125" customWidth="1"/>
+    <col min="2" max="2" width="45.83203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.2">
@@ -9513,6 +9530,2220 @@
         <v>54</v>
       </c>
     </row>
+    <row r="218" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A218" t="s">
+        <v>74</v>
+      </c>
+      <c r="B218" t="s">
+        <v>75</v>
+      </c>
+      <c r="C218">
+        <v>480</v>
+      </c>
+      <c r="D218">
+        <v>24</v>
+      </c>
+      <c r="E218">
+        <v>504</v>
+      </c>
+      <c r="F218">
+        <v>458</v>
+      </c>
+      <c r="G218">
+        <v>23</v>
+      </c>
+      <c r="H218">
+        <v>481</v>
+      </c>
+      <c r="I218">
+        <v>14</v>
+      </c>
+      <c r="J218">
+        <v>0.2</v>
+      </c>
+      <c r="K218" t="s">
+        <v>15</v>
+      </c>
+      <c r="L218" t="b">
+        <v>1</v>
+      </c>
+      <c r="M218" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="219" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A219" t="s">
+        <v>74</v>
+      </c>
+      <c r="B219" t="s">
+        <v>75</v>
+      </c>
+      <c r="C219">
+        <v>409</v>
+      </c>
+      <c r="D219">
+        <v>24</v>
+      </c>
+      <c r="E219">
+        <v>433</v>
+      </c>
+      <c r="F219">
+        <v>458</v>
+      </c>
+      <c r="G219">
+        <v>23</v>
+      </c>
+      <c r="H219">
+        <v>481</v>
+      </c>
+      <c r="I219">
+        <v>10</v>
+      </c>
+      <c r="J219">
+        <v>0.1</v>
+      </c>
+      <c r="K219" t="s">
+        <v>15</v>
+      </c>
+      <c r="L219" t="b">
+        <v>1</v>
+      </c>
+      <c r="M219" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="220" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A220" t="s">
+        <v>74</v>
+      </c>
+      <c r="B220" t="s">
+        <v>75</v>
+      </c>
+      <c r="C220">
+        <v>406</v>
+      </c>
+      <c r="D220">
+        <v>24</v>
+      </c>
+      <c r="E220">
+        <v>430</v>
+      </c>
+      <c r="F220">
+        <v>454</v>
+      </c>
+      <c r="G220">
+        <v>23</v>
+      </c>
+      <c r="H220">
+        <v>477</v>
+      </c>
+      <c r="I220">
+        <v>10</v>
+      </c>
+      <c r="J220">
+        <v>0.1</v>
+      </c>
+      <c r="K220" t="s">
+        <v>15</v>
+      </c>
+      <c r="L220" t="b">
+        <v>1</v>
+      </c>
+      <c r="M220" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="221" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A221" t="s">
+        <v>74</v>
+      </c>
+      <c r="B221" t="s">
+        <v>75</v>
+      </c>
+      <c r="C221">
+        <v>432</v>
+      </c>
+      <c r="D221">
+        <v>24</v>
+      </c>
+      <c r="E221">
+        <v>456</v>
+      </c>
+      <c r="F221">
+        <v>457</v>
+      </c>
+      <c r="G221">
+        <v>23</v>
+      </c>
+      <c r="H221">
+        <v>480</v>
+      </c>
+      <c r="I221">
+        <v>10</v>
+      </c>
+      <c r="J221">
+        <v>0.1</v>
+      </c>
+      <c r="K221" t="s">
+        <v>19</v>
+      </c>
+      <c r="L221" t="b">
+        <v>1</v>
+      </c>
+      <c r="M221" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="222" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A222" t="s">
+        <v>74</v>
+      </c>
+      <c r="B222" t="s">
+        <v>75</v>
+      </c>
+      <c r="C222">
+        <v>432</v>
+      </c>
+      <c r="D222">
+        <v>24</v>
+      </c>
+      <c r="E222">
+        <v>456</v>
+      </c>
+      <c r="F222">
+        <v>457</v>
+      </c>
+      <c r="G222">
+        <v>23</v>
+      </c>
+      <c r="H222">
+        <v>480</v>
+      </c>
+      <c r="I222">
+        <v>10</v>
+      </c>
+      <c r="J222">
+        <v>0.1</v>
+      </c>
+      <c r="K222" t="s">
+        <v>19</v>
+      </c>
+      <c r="L222" t="b">
+        <v>1</v>
+      </c>
+      <c r="M222" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="223" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A223" t="s">
+        <v>74</v>
+      </c>
+      <c r="B223" t="s">
+        <v>75</v>
+      </c>
+      <c r="C223">
+        <v>429</v>
+      </c>
+      <c r="D223">
+        <v>24</v>
+      </c>
+      <c r="E223">
+        <v>453</v>
+      </c>
+      <c r="F223">
+        <v>453</v>
+      </c>
+      <c r="G223">
+        <v>23</v>
+      </c>
+      <c r="H223">
+        <v>476</v>
+      </c>
+      <c r="I223">
+        <v>10</v>
+      </c>
+      <c r="J223">
+        <v>0.1</v>
+      </c>
+      <c r="K223" t="s">
+        <v>19</v>
+      </c>
+      <c r="L223" t="b">
+        <v>1</v>
+      </c>
+      <c r="M223" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="224" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A224" t="s">
+        <v>74</v>
+      </c>
+      <c r="B224" t="s">
+        <v>75</v>
+      </c>
+      <c r="C224">
+        <v>433</v>
+      </c>
+      <c r="D224">
+        <v>24</v>
+      </c>
+      <c r="E224">
+        <v>457</v>
+      </c>
+      <c r="F224">
+        <v>457</v>
+      </c>
+      <c r="G224">
+        <v>23</v>
+      </c>
+      <c r="H224">
+        <v>480</v>
+      </c>
+      <c r="I224">
+        <v>10</v>
+      </c>
+      <c r="J224">
+        <v>0.1</v>
+      </c>
+      <c r="K224" t="s">
+        <v>20</v>
+      </c>
+      <c r="L224" t="b">
+        <v>1</v>
+      </c>
+      <c r="M224" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="225" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A225" t="s">
+        <v>74</v>
+      </c>
+      <c r="B225" t="s">
+        <v>75</v>
+      </c>
+      <c r="C225">
+        <v>431</v>
+      </c>
+      <c r="D225">
+        <v>24</v>
+      </c>
+      <c r="E225">
+        <v>455</v>
+      </c>
+      <c r="F225">
+        <v>457</v>
+      </c>
+      <c r="G225">
+        <v>23</v>
+      </c>
+      <c r="H225">
+        <v>480</v>
+      </c>
+      <c r="I225">
+        <v>11</v>
+      </c>
+      <c r="J225">
+        <v>0.1</v>
+      </c>
+      <c r="K225" t="s">
+        <v>20</v>
+      </c>
+      <c r="L225" t="b">
+        <v>1</v>
+      </c>
+      <c r="M225" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="226" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A226" t="s">
+        <v>74</v>
+      </c>
+      <c r="B226" t="s">
+        <v>75</v>
+      </c>
+      <c r="C226">
+        <v>428</v>
+      </c>
+      <c r="D226">
+        <v>24</v>
+      </c>
+      <c r="E226">
+        <v>452</v>
+      </c>
+      <c r="F226">
+        <v>454</v>
+      </c>
+      <c r="G226">
+        <v>23</v>
+      </c>
+      <c r="H226">
+        <v>477</v>
+      </c>
+      <c r="I226">
+        <v>11</v>
+      </c>
+      <c r="J226">
+        <v>0.1</v>
+      </c>
+      <c r="K226" t="s">
+        <v>20</v>
+      </c>
+      <c r="L226" t="b">
+        <v>1</v>
+      </c>
+      <c r="M226" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="227" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A227" t="s">
+        <v>74</v>
+      </c>
+      <c r="B227" t="s">
+        <v>75</v>
+      </c>
+      <c r="C227">
+        <v>830</v>
+      </c>
+      <c r="D227">
+        <v>24</v>
+      </c>
+      <c r="E227">
+        <v>854</v>
+      </c>
+      <c r="F227">
+        <v>849</v>
+      </c>
+      <c r="G227">
+        <v>23</v>
+      </c>
+      <c r="H227">
+        <v>872</v>
+      </c>
+      <c r="I227">
+        <v>17</v>
+      </c>
+      <c r="J227">
+        <v>0.2</v>
+      </c>
+      <c r="K227" t="s">
+        <v>15</v>
+      </c>
+      <c r="L227" t="b">
+        <v>1</v>
+      </c>
+      <c r="M227" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="228" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A228" t="s">
+        <v>74</v>
+      </c>
+      <c r="B228" t="s">
+        <v>75</v>
+      </c>
+      <c r="C228">
+        <v>805</v>
+      </c>
+      <c r="D228">
+        <v>24</v>
+      </c>
+      <c r="E228">
+        <v>829</v>
+      </c>
+      <c r="F228">
+        <v>845</v>
+      </c>
+      <c r="G228">
+        <v>23</v>
+      </c>
+      <c r="H228">
+        <v>868</v>
+      </c>
+      <c r="I228">
+        <v>17</v>
+      </c>
+      <c r="J228">
+        <v>0.2</v>
+      </c>
+      <c r="K228" t="s">
+        <v>15</v>
+      </c>
+      <c r="L228" t="b">
+        <v>1</v>
+      </c>
+      <c r="M228" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="229" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A229" t="s">
+        <v>74</v>
+      </c>
+      <c r="B229" t="s">
+        <v>75</v>
+      </c>
+      <c r="C229">
+        <v>808</v>
+      </c>
+      <c r="D229">
+        <v>24</v>
+      </c>
+      <c r="E229">
+        <v>832</v>
+      </c>
+      <c r="F229">
+        <v>849</v>
+      </c>
+      <c r="G229">
+        <v>23</v>
+      </c>
+      <c r="H229">
+        <v>872</v>
+      </c>
+      <c r="I229">
+        <v>17</v>
+      </c>
+      <c r="J229">
+        <v>0.2</v>
+      </c>
+      <c r="K229" t="s">
+        <v>15</v>
+      </c>
+      <c r="L229" t="b">
+        <v>1</v>
+      </c>
+      <c r="M229" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="230" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A230" t="s">
+        <v>74</v>
+      </c>
+      <c r="B230" t="s">
+        <v>75</v>
+      </c>
+      <c r="C230">
+        <v>827</v>
+      </c>
+      <c r="D230">
+        <v>24</v>
+      </c>
+      <c r="E230">
+        <v>851</v>
+      </c>
+      <c r="F230">
+        <v>848</v>
+      </c>
+      <c r="G230">
+        <v>23</v>
+      </c>
+      <c r="H230">
+        <v>871</v>
+      </c>
+      <c r="I230">
+        <v>17</v>
+      </c>
+      <c r="J230">
+        <v>0.2</v>
+      </c>
+      <c r="K230" t="s">
+        <v>19</v>
+      </c>
+      <c r="L230" t="b">
+        <v>1</v>
+      </c>
+      <c r="M230" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="231" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A231" t="s">
+        <v>74</v>
+      </c>
+      <c r="B231" t="s">
+        <v>75</v>
+      </c>
+      <c r="C231">
+        <v>828</v>
+      </c>
+      <c r="D231">
+        <v>24</v>
+      </c>
+      <c r="E231">
+        <v>852</v>
+      </c>
+      <c r="F231">
+        <v>844</v>
+      </c>
+      <c r="G231">
+        <v>23</v>
+      </c>
+      <c r="H231">
+        <v>867</v>
+      </c>
+      <c r="I231">
+        <v>17</v>
+      </c>
+      <c r="J231">
+        <v>0.2</v>
+      </c>
+      <c r="K231" t="s">
+        <v>19</v>
+      </c>
+      <c r="L231" t="b">
+        <v>1</v>
+      </c>
+      <c r="M231" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="232" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A232" t="s">
+        <v>74</v>
+      </c>
+      <c r="B232" t="s">
+        <v>75</v>
+      </c>
+      <c r="C232">
+        <v>831</v>
+      </c>
+      <c r="D232">
+        <v>24</v>
+      </c>
+      <c r="E232">
+        <v>855</v>
+      </c>
+      <c r="F232">
+        <v>848</v>
+      </c>
+      <c r="G232">
+        <v>23</v>
+      </c>
+      <c r="H232">
+        <v>871</v>
+      </c>
+      <c r="I232">
+        <v>17</v>
+      </c>
+      <c r="J232">
+        <v>0.2</v>
+      </c>
+      <c r="K232" t="s">
+        <v>19</v>
+      </c>
+      <c r="L232" t="b">
+        <v>1</v>
+      </c>
+      <c r="M232" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="233" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A233" t="s">
+        <v>74</v>
+      </c>
+      <c r="B233" t="s">
+        <v>75</v>
+      </c>
+      <c r="C233">
+        <v>828</v>
+      </c>
+      <c r="D233">
+        <v>24</v>
+      </c>
+      <c r="E233">
+        <v>852</v>
+      </c>
+      <c r="F233">
+        <v>848</v>
+      </c>
+      <c r="G233">
+        <v>23</v>
+      </c>
+      <c r="H233">
+        <v>871</v>
+      </c>
+      <c r="I233">
+        <v>17</v>
+      </c>
+      <c r="J233">
+        <v>0.2</v>
+      </c>
+      <c r="K233" t="s">
+        <v>20</v>
+      </c>
+      <c r="L233" t="b">
+        <v>1</v>
+      </c>
+      <c r="M233" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="234" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A234" t="s">
+        <v>74</v>
+      </c>
+      <c r="B234" t="s">
+        <v>75</v>
+      </c>
+      <c r="C234">
+        <v>827</v>
+      </c>
+      <c r="D234">
+        <v>24</v>
+      </c>
+      <c r="E234">
+        <v>851</v>
+      </c>
+      <c r="F234">
+        <v>844</v>
+      </c>
+      <c r="G234">
+        <v>23</v>
+      </c>
+      <c r="H234">
+        <v>867</v>
+      </c>
+      <c r="I234">
+        <v>17</v>
+      </c>
+      <c r="J234">
+        <v>0.2</v>
+      </c>
+      <c r="K234" t="s">
+        <v>20</v>
+      </c>
+      <c r="L234" t="b">
+        <v>1</v>
+      </c>
+      <c r="M234" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="235" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A235" t="s">
+        <v>74</v>
+      </c>
+      <c r="B235" t="s">
+        <v>75</v>
+      </c>
+      <c r="C235">
+        <v>830</v>
+      </c>
+      <c r="D235">
+        <v>24</v>
+      </c>
+      <c r="E235">
+        <v>854</v>
+      </c>
+      <c r="F235">
+        <v>848</v>
+      </c>
+      <c r="G235">
+        <v>23</v>
+      </c>
+      <c r="H235">
+        <v>871</v>
+      </c>
+      <c r="I235">
+        <v>17</v>
+      </c>
+      <c r="J235">
+        <v>0.2</v>
+      </c>
+      <c r="K235" t="s">
+        <v>20</v>
+      </c>
+      <c r="L235" t="b">
+        <v>1</v>
+      </c>
+      <c r="M235" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="236" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A236" t="s">
+        <v>74</v>
+      </c>
+      <c r="B236" t="s">
+        <v>75</v>
+      </c>
+      <c r="C236">
+        <v>1627</v>
+      </c>
+      <c r="D236">
+        <v>24</v>
+      </c>
+      <c r="E236">
+        <v>1651</v>
+      </c>
+      <c r="F236">
+        <v>1634</v>
+      </c>
+      <c r="G236">
+        <v>23</v>
+      </c>
+      <c r="H236">
+        <v>1657</v>
+      </c>
+      <c r="I236">
+        <v>31</v>
+      </c>
+      <c r="J236">
+        <v>0.5</v>
+      </c>
+      <c r="K236" t="s">
+        <v>15</v>
+      </c>
+      <c r="L236" t="b">
+        <v>1</v>
+      </c>
+      <c r="M236" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="237" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A237" t="s">
+        <v>74</v>
+      </c>
+      <c r="B237" t="s">
+        <v>75</v>
+      </c>
+      <c r="C237">
+        <v>1609</v>
+      </c>
+      <c r="D237">
+        <v>24</v>
+      </c>
+      <c r="E237">
+        <v>1633</v>
+      </c>
+      <c r="F237">
+        <v>1641</v>
+      </c>
+      <c r="G237">
+        <v>23</v>
+      </c>
+      <c r="H237">
+        <v>1664</v>
+      </c>
+      <c r="I237">
+        <v>32</v>
+      </c>
+      <c r="J237">
+        <v>0.5</v>
+      </c>
+      <c r="K237" t="s">
+        <v>15</v>
+      </c>
+      <c r="L237" t="b">
+        <v>1</v>
+      </c>
+      <c r="M237" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="238" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A238" t="s">
+        <v>74</v>
+      </c>
+      <c r="B238" t="s">
+        <v>75</v>
+      </c>
+      <c r="C238">
+        <v>1606</v>
+      </c>
+      <c r="D238">
+        <v>24</v>
+      </c>
+      <c r="E238">
+        <v>1630</v>
+      </c>
+      <c r="F238">
+        <v>1642</v>
+      </c>
+      <c r="G238">
+        <v>23</v>
+      </c>
+      <c r="H238">
+        <v>1665</v>
+      </c>
+      <c r="I238">
+        <v>33</v>
+      </c>
+      <c r="J238">
+        <v>0.5</v>
+      </c>
+      <c r="K238" t="s">
+        <v>15</v>
+      </c>
+      <c r="L238" t="b">
+        <v>1</v>
+      </c>
+      <c r="M238" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="239" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A239" t="s">
+        <v>74</v>
+      </c>
+      <c r="B239" t="s">
+        <v>75</v>
+      </c>
+      <c r="C239">
+        <v>1624</v>
+      </c>
+      <c r="D239">
+        <v>24</v>
+      </c>
+      <c r="E239">
+        <v>1648</v>
+      </c>
+      <c r="F239">
+        <v>1633</v>
+      </c>
+      <c r="G239">
+        <v>23</v>
+      </c>
+      <c r="H239">
+        <v>1656</v>
+      </c>
+      <c r="I239">
+        <v>33</v>
+      </c>
+      <c r="J239">
+        <v>0.5</v>
+      </c>
+      <c r="K239" t="s">
+        <v>19</v>
+      </c>
+      <c r="L239" t="b">
+        <v>1</v>
+      </c>
+      <c r="M239" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="240" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A240" t="s">
+        <v>74</v>
+      </c>
+      <c r="B240" t="s">
+        <v>75</v>
+      </c>
+      <c r="C240">
+        <v>1632</v>
+      </c>
+      <c r="D240">
+        <v>24</v>
+      </c>
+      <c r="E240">
+        <v>1656</v>
+      </c>
+      <c r="F240">
+        <v>1640</v>
+      </c>
+      <c r="G240">
+        <v>23</v>
+      </c>
+      <c r="H240">
+        <v>1663</v>
+      </c>
+      <c r="I240">
+        <v>34</v>
+      </c>
+      <c r="J240">
+        <v>0.5</v>
+      </c>
+      <c r="K240" t="s">
+        <v>19</v>
+      </c>
+      <c r="L240" t="b">
+        <v>1</v>
+      </c>
+      <c r="M240" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="241" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A241" t="s">
+        <v>74</v>
+      </c>
+      <c r="B241" t="s">
+        <v>75</v>
+      </c>
+      <c r="C241">
+        <v>1629</v>
+      </c>
+      <c r="D241">
+        <v>24</v>
+      </c>
+      <c r="E241">
+        <v>1653</v>
+      </c>
+      <c r="F241">
+        <v>1641</v>
+      </c>
+      <c r="G241">
+        <v>23</v>
+      </c>
+      <c r="H241">
+        <v>1664</v>
+      </c>
+      <c r="I241">
+        <v>34</v>
+      </c>
+      <c r="J241">
+        <v>0.5</v>
+      </c>
+      <c r="K241" t="s">
+        <v>19</v>
+      </c>
+      <c r="L241" t="b">
+        <v>1</v>
+      </c>
+      <c r="M241" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="242" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A242" t="s">
+        <v>74</v>
+      </c>
+      <c r="B242" t="s">
+        <v>75</v>
+      </c>
+      <c r="C242">
+        <v>1625</v>
+      </c>
+      <c r="D242">
+        <v>50</v>
+      </c>
+      <c r="E242">
+        <v>1675</v>
+      </c>
+      <c r="F242">
+        <v>1633</v>
+      </c>
+      <c r="G242">
+        <v>50</v>
+      </c>
+      <c r="H242">
+        <v>1683</v>
+      </c>
+      <c r="I242">
+        <v>40</v>
+      </c>
+      <c r="J242">
+        <v>0.6</v>
+      </c>
+      <c r="K242" t="s">
+        <v>20</v>
+      </c>
+      <c r="L242" t="b">
+        <v>0</v>
+      </c>
+      <c r="M242" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="243" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A243" t="s">
+        <v>74</v>
+      </c>
+      <c r="B243" t="s">
+        <v>75</v>
+      </c>
+      <c r="C243">
+        <v>1631</v>
+      </c>
+      <c r="D243">
+        <v>24</v>
+      </c>
+      <c r="E243">
+        <v>1655</v>
+      </c>
+      <c r="F243">
+        <v>1640</v>
+      </c>
+      <c r="G243">
+        <v>23</v>
+      </c>
+      <c r="H243">
+        <v>1663</v>
+      </c>
+      <c r="I243">
+        <v>35</v>
+      </c>
+      <c r="J243">
+        <v>0.5</v>
+      </c>
+      <c r="K243" t="s">
+        <v>20</v>
+      </c>
+      <c r="L243" t="b">
+        <v>1</v>
+      </c>
+      <c r="M243" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="244" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A244" t="s">
+        <v>74</v>
+      </c>
+      <c r="B244" t="s">
+        <v>75</v>
+      </c>
+      <c r="C244">
+        <v>1628</v>
+      </c>
+      <c r="D244">
+        <v>24</v>
+      </c>
+      <c r="E244">
+        <v>1652</v>
+      </c>
+      <c r="F244">
+        <v>1641</v>
+      </c>
+      <c r="G244">
+        <v>23</v>
+      </c>
+      <c r="H244">
+        <v>1664</v>
+      </c>
+      <c r="I244">
+        <v>35</v>
+      </c>
+      <c r="J244">
+        <v>0.5</v>
+      </c>
+      <c r="K244" t="s">
+        <v>20</v>
+      </c>
+      <c r="L244" t="b">
+        <v>1</v>
+      </c>
+      <c r="M244" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="245" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A245" t="s">
+        <v>77</v>
+      </c>
+      <c r="B245" t="s">
+        <v>78</v>
+      </c>
+      <c r="C245">
+        <v>480</v>
+      </c>
+      <c r="D245">
+        <v>24</v>
+      </c>
+      <c r="E245">
+        <v>504</v>
+      </c>
+      <c r="F245">
+        <v>458</v>
+      </c>
+      <c r="G245">
+        <v>23</v>
+      </c>
+      <c r="H245">
+        <v>481</v>
+      </c>
+      <c r="I245">
+        <v>15</v>
+      </c>
+      <c r="J245">
+        <v>0.2</v>
+      </c>
+      <c r="K245" t="s">
+        <v>15</v>
+      </c>
+      <c r="L245" t="b">
+        <v>1</v>
+      </c>
+      <c r="M245" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="246" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A246" t="s">
+        <v>77</v>
+      </c>
+      <c r="B246" t="s">
+        <v>78</v>
+      </c>
+      <c r="C246">
+        <v>409</v>
+      </c>
+      <c r="D246">
+        <v>24</v>
+      </c>
+      <c r="E246">
+        <v>433</v>
+      </c>
+      <c r="F246">
+        <v>458</v>
+      </c>
+      <c r="G246">
+        <v>23</v>
+      </c>
+      <c r="H246">
+        <v>481</v>
+      </c>
+      <c r="I246">
+        <v>11</v>
+      </c>
+      <c r="J246">
+        <v>0.1</v>
+      </c>
+      <c r="K246" t="s">
+        <v>15</v>
+      </c>
+      <c r="L246" t="b">
+        <v>1</v>
+      </c>
+      <c r="M246" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="247" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A247" t="s">
+        <v>77</v>
+      </c>
+      <c r="B247" t="s">
+        <v>78</v>
+      </c>
+      <c r="C247">
+        <v>406</v>
+      </c>
+      <c r="D247">
+        <v>24</v>
+      </c>
+      <c r="E247">
+        <v>430</v>
+      </c>
+      <c r="F247">
+        <v>454</v>
+      </c>
+      <c r="G247">
+        <v>23</v>
+      </c>
+      <c r="H247">
+        <v>477</v>
+      </c>
+      <c r="I247">
+        <v>10</v>
+      </c>
+      <c r="J247">
+        <v>0.1</v>
+      </c>
+      <c r="K247" t="s">
+        <v>15</v>
+      </c>
+      <c r="L247" t="b">
+        <v>1</v>
+      </c>
+      <c r="M247" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="248" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A248" t="s">
+        <v>77</v>
+      </c>
+      <c r="B248" t="s">
+        <v>78</v>
+      </c>
+      <c r="C248">
+        <v>432</v>
+      </c>
+      <c r="D248">
+        <v>24</v>
+      </c>
+      <c r="E248">
+        <v>456</v>
+      </c>
+      <c r="F248">
+        <v>457</v>
+      </c>
+      <c r="G248">
+        <v>23</v>
+      </c>
+      <c r="H248">
+        <v>480</v>
+      </c>
+      <c r="I248">
+        <v>11</v>
+      </c>
+      <c r="J248">
+        <v>0.1</v>
+      </c>
+      <c r="K248" t="s">
+        <v>19</v>
+      </c>
+      <c r="L248" t="b">
+        <v>1</v>
+      </c>
+      <c r="M248" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="249" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A249" t="s">
+        <v>77</v>
+      </c>
+      <c r="B249" t="s">
+        <v>78</v>
+      </c>
+      <c r="C249">
+        <v>432</v>
+      </c>
+      <c r="D249">
+        <v>24</v>
+      </c>
+      <c r="E249">
+        <v>456</v>
+      </c>
+      <c r="F249">
+        <v>457</v>
+      </c>
+      <c r="G249">
+        <v>23</v>
+      </c>
+      <c r="H249">
+        <v>480</v>
+      </c>
+      <c r="I249">
+        <v>11</v>
+      </c>
+      <c r="J249">
+        <v>0.1</v>
+      </c>
+      <c r="K249" t="s">
+        <v>19</v>
+      </c>
+      <c r="L249" t="b">
+        <v>1</v>
+      </c>
+      <c r="M249" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="250" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A250" t="s">
+        <v>77</v>
+      </c>
+      <c r="B250" t="s">
+        <v>78</v>
+      </c>
+      <c r="C250">
+        <v>429</v>
+      </c>
+      <c r="D250">
+        <v>24</v>
+      </c>
+      <c r="E250">
+        <v>453</v>
+      </c>
+      <c r="F250">
+        <v>453</v>
+      </c>
+      <c r="G250">
+        <v>23</v>
+      </c>
+      <c r="H250">
+        <v>476</v>
+      </c>
+      <c r="I250">
+        <v>11</v>
+      </c>
+      <c r="J250">
+        <v>0.1</v>
+      </c>
+      <c r="K250" t="s">
+        <v>19</v>
+      </c>
+      <c r="L250" t="b">
+        <v>1</v>
+      </c>
+      <c r="M250" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="251" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A251" t="s">
+        <v>77</v>
+      </c>
+      <c r="B251" t="s">
+        <v>78</v>
+      </c>
+      <c r="C251">
+        <v>433</v>
+      </c>
+      <c r="D251">
+        <v>24</v>
+      </c>
+      <c r="E251">
+        <v>457</v>
+      </c>
+      <c r="F251">
+        <v>457</v>
+      </c>
+      <c r="G251">
+        <v>23</v>
+      </c>
+      <c r="H251">
+        <v>480</v>
+      </c>
+      <c r="I251">
+        <v>11</v>
+      </c>
+      <c r="J251">
+        <v>0.1</v>
+      </c>
+      <c r="K251" t="s">
+        <v>20</v>
+      </c>
+      <c r="L251" t="b">
+        <v>1</v>
+      </c>
+      <c r="M251" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="252" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A252" t="s">
+        <v>77</v>
+      </c>
+      <c r="B252" t="s">
+        <v>78</v>
+      </c>
+      <c r="C252">
+        <v>431</v>
+      </c>
+      <c r="D252">
+        <v>24</v>
+      </c>
+      <c r="E252">
+        <v>455</v>
+      </c>
+      <c r="F252">
+        <v>457</v>
+      </c>
+      <c r="G252">
+        <v>23</v>
+      </c>
+      <c r="H252">
+        <v>480</v>
+      </c>
+      <c r="I252">
+        <v>11</v>
+      </c>
+      <c r="J252">
+        <v>0.1</v>
+      </c>
+      <c r="K252" t="s">
+        <v>20</v>
+      </c>
+      <c r="L252" t="b">
+        <v>1</v>
+      </c>
+      <c r="M252" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="253" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A253" t="s">
+        <v>77</v>
+      </c>
+      <c r="B253" t="s">
+        <v>78</v>
+      </c>
+      <c r="C253">
+        <v>428</v>
+      </c>
+      <c r="D253">
+        <v>24</v>
+      </c>
+      <c r="E253">
+        <v>452</v>
+      </c>
+      <c r="F253">
+        <v>454</v>
+      </c>
+      <c r="G253">
+        <v>23</v>
+      </c>
+      <c r="H253">
+        <v>477</v>
+      </c>
+      <c r="I253">
+        <v>11</v>
+      </c>
+      <c r="J253">
+        <v>0.1</v>
+      </c>
+      <c r="K253" t="s">
+        <v>20</v>
+      </c>
+      <c r="L253" t="b">
+        <v>1</v>
+      </c>
+      <c r="M253" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="254" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A254" t="s">
+        <v>77</v>
+      </c>
+      <c r="B254" t="s">
+        <v>78</v>
+      </c>
+      <c r="C254">
+        <v>830</v>
+      </c>
+      <c r="D254">
+        <v>24</v>
+      </c>
+      <c r="E254">
+        <v>854</v>
+      </c>
+      <c r="F254">
+        <v>849</v>
+      </c>
+      <c r="G254">
+        <v>23</v>
+      </c>
+      <c r="H254">
+        <v>872</v>
+      </c>
+      <c r="I254">
+        <v>17</v>
+      </c>
+      <c r="J254">
+        <v>0.2</v>
+      </c>
+      <c r="K254" t="s">
+        <v>15</v>
+      </c>
+      <c r="L254" t="b">
+        <v>1</v>
+      </c>
+      <c r="M254" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="255" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A255" t="s">
+        <v>77</v>
+      </c>
+      <c r="B255" t="s">
+        <v>78</v>
+      </c>
+      <c r="C255">
+        <v>805</v>
+      </c>
+      <c r="D255">
+        <v>24</v>
+      </c>
+      <c r="E255">
+        <v>829</v>
+      </c>
+      <c r="F255">
+        <v>845</v>
+      </c>
+      <c r="G255">
+        <v>23</v>
+      </c>
+      <c r="H255">
+        <v>868</v>
+      </c>
+      <c r="I255">
+        <v>18</v>
+      </c>
+      <c r="J255">
+        <v>0.3</v>
+      </c>
+      <c r="K255" t="s">
+        <v>15</v>
+      </c>
+      <c r="L255" t="b">
+        <v>1</v>
+      </c>
+      <c r="M255" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="256" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A256" t="s">
+        <v>77</v>
+      </c>
+      <c r="B256" t="s">
+        <v>78</v>
+      </c>
+      <c r="C256">
+        <v>808</v>
+      </c>
+      <c r="D256">
+        <v>24</v>
+      </c>
+      <c r="E256">
+        <v>832</v>
+      </c>
+      <c r="F256">
+        <v>849</v>
+      </c>
+      <c r="G256">
+        <v>23</v>
+      </c>
+      <c r="H256">
+        <v>872</v>
+      </c>
+      <c r="I256">
+        <v>17</v>
+      </c>
+      <c r="J256">
+        <v>0.2</v>
+      </c>
+      <c r="K256" t="s">
+        <v>15</v>
+      </c>
+      <c r="L256" t="b">
+        <v>1</v>
+      </c>
+      <c r="M256" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="257" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A257" t="s">
+        <v>77</v>
+      </c>
+      <c r="B257" t="s">
+        <v>78</v>
+      </c>
+      <c r="C257">
+        <v>827</v>
+      </c>
+      <c r="D257">
+        <v>24</v>
+      </c>
+      <c r="E257">
+        <v>851</v>
+      </c>
+      <c r="F257">
+        <v>848</v>
+      </c>
+      <c r="G257">
+        <v>23</v>
+      </c>
+      <c r="H257">
+        <v>871</v>
+      </c>
+      <c r="I257">
+        <v>17</v>
+      </c>
+      <c r="J257">
+        <v>0.2</v>
+      </c>
+      <c r="K257" t="s">
+        <v>19</v>
+      </c>
+      <c r="L257" t="b">
+        <v>1</v>
+      </c>
+      <c r="M257" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="258" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A258" t="s">
+        <v>77</v>
+      </c>
+      <c r="B258" t="s">
+        <v>78</v>
+      </c>
+      <c r="C258">
+        <v>828</v>
+      </c>
+      <c r="D258">
+        <v>24</v>
+      </c>
+      <c r="E258">
+        <v>852</v>
+      </c>
+      <c r="F258">
+        <v>844</v>
+      </c>
+      <c r="G258">
+        <v>23</v>
+      </c>
+      <c r="H258">
+        <v>867</v>
+      </c>
+      <c r="I258">
+        <v>17</v>
+      </c>
+      <c r="J258">
+        <v>0.2</v>
+      </c>
+      <c r="K258" t="s">
+        <v>19</v>
+      </c>
+      <c r="L258" t="b">
+        <v>1</v>
+      </c>
+      <c r="M258" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="259" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A259" t="s">
+        <v>77</v>
+      </c>
+      <c r="B259" t="s">
+        <v>78</v>
+      </c>
+      <c r="C259">
+        <v>831</v>
+      </c>
+      <c r="D259">
+        <v>24</v>
+      </c>
+      <c r="E259">
+        <v>855</v>
+      </c>
+      <c r="F259">
+        <v>848</v>
+      </c>
+      <c r="G259">
+        <v>23</v>
+      </c>
+      <c r="H259">
+        <v>871</v>
+      </c>
+      <c r="I259">
+        <v>17</v>
+      </c>
+      <c r="J259">
+        <v>0.2</v>
+      </c>
+      <c r="K259" t="s">
+        <v>19</v>
+      </c>
+      <c r="L259" t="b">
+        <v>1</v>
+      </c>
+      <c r="M259" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="260" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A260" t="s">
+        <v>77</v>
+      </c>
+      <c r="B260" t="s">
+        <v>78</v>
+      </c>
+      <c r="C260">
+        <v>828</v>
+      </c>
+      <c r="D260">
+        <v>24</v>
+      </c>
+      <c r="E260">
+        <v>852</v>
+      </c>
+      <c r="F260">
+        <v>848</v>
+      </c>
+      <c r="G260">
+        <v>23</v>
+      </c>
+      <c r="H260">
+        <v>871</v>
+      </c>
+      <c r="I260">
+        <v>17</v>
+      </c>
+      <c r="J260">
+        <v>0.2</v>
+      </c>
+      <c r="K260" t="s">
+        <v>20</v>
+      </c>
+      <c r="L260" t="b">
+        <v>1</v>
+      </c>
+      <c r="M260" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="261" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A261" t="s">
+        <v>77</v>
+      </c>
+      <c r="B261" t="s">
+        <v>78</v>
+      </c>
+      <c r="C261">
+        <v>827</v>
+      </c>
+      <c r="D261">
+        <v>24</v>
+      </c>
+      <c r="E261">
+        <v>851</v>
+      </c>
+      <c r="F261">
+        <v>844</v>
+      </c>
+      <c r="G261">
+        <v>23</v>
+      </c>
+      <c r="H261">
+        <v>867</v>
+      </c>
+      <c r="I261">
+        <v>17</v>
+      </c>
+      <c r="J261">
+        <v>0.2</v>
+      </c>
+      <c r="K261" t="s">
+        <v>20</v>
+      </c>
+      <c r="L261" t="b">
+        <v>1</v>
+      </c>
+      <c r="M261" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="262" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A262" t="s">
+        <v>77</v>
+      </c>
+      <c r="B262" t="s">
+        <v>78</v>
+      </c>
+      <c r="C262">
+        <v>830</v>
+      </c>
+      <c r="D262">
+        <v>24</v>
+      </c>
+      <c r="E262">
+        <v>854</v>
+      </c>
+      <c r="F262">
+        <v>848</v>
+      </c>
+      <c r="G262">
+        <v>23</v>
+      </c>
+      <c r="H262">
+        <v>871</v>
+      </c>
+      <c r="I262">
+        <v>17</v>
+      </c>
+      <c r="J262">
+        <v>0.2</v>
+      </c>
+      <c r="K262" t="s">
+        <v>20</v>
+      </c>
+      <c r="L262" t="b">
+        <v>1</v>
+      </c>
+      <c r="M262" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="263" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A263" t="s">
+        <v>77</v>
+      </c>
+      <c r="B263" t="s">
+        <v>78</v>
+      </c>
+      <c r="C263">
+        <v>1627</v>
+      </c>
+      <c r="D263">
+        <v>24</v>
+      </c>
+      <c r="E263">
+        <v>1651</v>
+      </c>
+      <c r="F263">
+        <v>1634</v>
+      </c>
+      <c r="G263">
+        <v>23</v>
+      </c>
+      <c r="H263">
+        <v>1657</v>
+      </c>
+      <c r="I263">
+        <v>31</v>
+      </c>
+      <c r="J263">
+        <v>0.5</v>
+      </c>
+      <c r="K263" t="s">
+        <v>15</v>
+      </c>
+      <c r="L263" t="b">
+        <v>1</v>
+      </c>
+      <c r="M263" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="264" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A264" t="s">
+        <v>77</v>
+      </c>
+      <c r="B264" t="s">
+        <v>78</v>
+      </c>
+      <c r="C264">
+        <v>1609</v>
+      </c>
+      <c r="D264">
+        <v>24</v>
+      </c>
+      <c r="E264">
+        <v>1633</v>
+      </c>
+      <c r="F264">
+        <v>1641</v>
+      </c>
+      <c r="G264">
+        <v>23</v>
+      </c>
+      <c r="H264">
+        <v>1664</v>
+      </c>
+      <c r="I264">
+        <v>31</v>
+      </c>
+      <c r="J264">
+        <v>0.5</v>
+      </c>
+      <c r="K264" t="s">
+        <v>15</v>
+      </c>
+      <c r="L264" t="b">
+        <v>1</v>
+      </c>
+      <c r="M264" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="265" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A265" t="s">
+        <v>77</v>
+      </c>
+      <c r="B265" t="s">
+        <v>78</v>
+      </c>
+      <c r="C265">
+        <v>1606</v>
+      </c>
+      <c r="D265">
+        <v>24</v>
+      </c>
+      <c r="E265">
+        <v>1630</v>
+      </c>
+      <c r="F265">
+        <v>1642</v>
+      </c>
+      <c r="G265">
+        <v>23</v>
+      </c>
+      <c r="H265">
+        <v>1665</v>
+      </c>
+      <c r="I265">
+        <v>31</v>
+      </c>
+      <c r="J265">
+        <v>0.5</v>
+      </c>
+      <c r="K265" t="s">
+        <v>15</v>
+      </c>
+      <c r="L265" t="b">
+        <v>1</v>
+      </c>
+      <c r="M265" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="266" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A266" t="s">
+        <v>77</v>
+      </c>
+      <c r="B266" t="s">
+        <v>78</v>
+      </c>
+      <c r="C266">
+        <v>1624</v>
+      </c>
+      <c r="D266">
+        <v>24</v>
+      </c>
+      <c r="E266">
+        <v>1648</v>
+      </c>
+      <c r="F266">
+        <v>1633</v>
+      </c>
+      <c r="G266">
+        <v>23</v>
+      </c>
+      <c r="H266">
+        <v>1656</v>
+      </c>
+      <c r="I266">
+        <v>31</v>
+      </c>
+      <c r="J266">
+        <v>0.5</v>
+      </c>
+      <c r="K266" t="s">
+        <v>19</v>
+      </c>
+      <c r="L266" t="b">
+        <v>1</v>
+      </c>
+      <c r="M266" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="267" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A267" t="s">
+        <v>77</v>
+      </c>
+      <c r="B267" t="s">
+        <v>78</v>
+      </c>
+      <c r="C267">
+        <v>1632</v>
+      </c>
+      <c r="D267">
+        <v>24</v>
+      </c>
+      <c r="E267">
+        <v>1656</v>
+      </c>
+      <c r="F267">
+        <v>1640</v>
+      </c>
+      <c r="G267">
+        <v>23</v>
+      </c>
+      <c r="H267">
+        <v>1663</v>
+      </c>
+      <c r="I267">
+        <v>31</v>
+      </c>
+      <c r="J267">
+        <v>0.5</v>
+      </c>
+      <c r="K267" t="s">
+        <v>19</v>
+      </c>
+      <c r="L267" t="b">
+        <v>1</v>
+      </c>
+      <c r="M267" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="268" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A268" t="s">
+        <v>77</v>
+      </c>
+      <c r="B268" t="s">
+        <v>78</v>
+      </c>
+      <c r="C268">
+        <v>1629</v>
+      </c>
+      <c r="D268">
+        <v>24</v>
+      </c>
+      <c r="E268">
+        <v>1653</v>
+      </c>
+      <c r="F268">
+        <v>1641</v>
+      </c>
+      <c r="G268">
+        <v>23</v>
+      </c>
+      <c r="H268">
+        <v>1664</v>
+      </c>
+      <c r="I268">
+        <v>31</v>
+      </c>
+      <c r="J268">
+        <v>0.5</v>
+      </c>
+      <c r="K268" t="s">
+        <v>19</v>
+      </c>
+      <c r="L268" t="b">
+        <v>1</v>
+      </c>
+      <c r="M268" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="269" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A269" t="s">
+        <v>77</v>
+      </c>
+      <c r="B269" t="s">
+        <v>78</v>
+      </c>
+      <c r="C269">
+        <v>1625</v>
+      </c>
+      <c r="D269">
+        <v>50</v>
+      </c>
+      <c r="E269">
+        <v>1675</v>
+      </c>
+      <c r="F269">
+        <v>1633</v>
+      </c>
+      <c r="G269">
+        <v>50</v>
+      </c>
+      <c r="H269">
+        <v>1683</v>
+      </c>
+      <c r="I269">
+        <v>35</v>
+      </c>
+      <c r="J269">
+        <v>0.5</v>
+      </c>
+      <c r="K269" t="s">
+        <v>20</v>
+      </c>
+      <c r="L269" t="b">
+        <v>0</v>
+      </c>
+      <c r="M269" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="270" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A270" t="s">
+        <v>77</v>
+      </c>
+      <c r="B270" t="s">
+        <v>78</v>
+      </c>
+      <c r="C270">
+        <v>1631</v>
+      </c>
+      <c r="D270">
+        <v>24</v>
+      </c>
+      <c r="E270">
+        <v>1655</v>
+      </c>
+      <c r="F270">
+        <v>1640</v>
+      </c>
+      <c r="G270">
+        <v>23</v>
+      </c>
+      <c r="H270">
+        <v>1663</v>
+      </c>
+      <c r="I270">
+        <v>31</v>
+      </c>
+      <c r="J270">
+        <v>0.5</v>
+      </c>
+      <c r="K270" t="s">
+        <v>20</v>
+      </c>
+      <c r="L270" t="b">
+        <v>1</v>
+      </c>
+      <c r="M270" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="271" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A271" t="s">
+        <v>77</v>
+      </c>
+      <c r="B271" t="s">
+        <v>78</v>
+      </c>
+      <c r="C271">
+        <v>1628</v>
+      </c>
+      <c r="D271">
+        <v>24</v>
+      </c>
+      <c r="E271">
+        <v>1652</v>
+      </c>
+      <c r="F271">
+        <v>1641</v>
+      </c>
+      <c r="G271">
+        <v>23</v>
+      </c>
+      <c r="H271">
+        <v>1664</v>
+      </c>
+      <c r="I271">
+        <v>31</v>
+      </c>
+      <c r="J271">
+        <v>0.5</v>
+      </c>
+      <c r="K271" t="s">
+        <v>20</v>
+      </c>
+      <c r="L271" t="b">
+        <v>1</v>
+      </c>
+      <c r="M271" t="s">
+        <v>54</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
